--- a/integrative_detection_suppTable1.xlsx
+++ b/integrative_detection_suppTable1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="243">
   <si>
     <t xml:space="preserve">List of cell/tissue types with performed experiments and analysis</t>
   </si>
@@ -1249,9 +1249,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">CHECK NORMALIZATION – row sums !!!</t>
-  </si>
-  <si>
     <t xml:space="preserve">BREAST</t>
   </si>
   <si>
@@ -1729,8 +1726,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">GSE105318
-(DLD1):
+      <t xml:space="preserve">GSE105318 (DLD1):
 </t>
     </r>
     <r>
@@ -2135,7 +2131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2253,6 +2249,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF009900"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF3333"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2276,22 +2279,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="52"/>
-      <color rgb="FFCE181E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="52"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2326,20 +2313,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF66"/>
-        <bgColor rgb="FF99CC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CCFF"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF3300"/>
       </patternFill>
     </fill>
     <fill>
@@ -2349,7 +2336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2372,10 +2359,66 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -2404,7 +2447,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2441,6 +2484,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2453,23 +2500,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2502,11 +2553,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2518,146 +2573,242 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2740,15 +2891,16 @@
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
@@ -2830,12 +2982,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -2856,14 +3008,14 @@
       <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -2893,7 +3045,7 @@
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2914,7 +3066,7 @@
       <c r="I6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
@@ -2942,14 +3094,14 @@
       <c r="I7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -2970,14 +3122,14 @@
       <c r="I8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2998,14 +3150,14 @@
       <c r="I9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -3024,49 +3176,49 @@
       <c r="I10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
@@ -3079,14 +3231,14 @@
       <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
@@ -3099,12 +3251,12 @@
       <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
@@ -3117,48 +3269,48 @@
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="8" t="s">
         <v>14</v>
       </c>
@@ -3166,25 +3318,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
@@ -3197,16 +3349,16 @@
       <c r="D19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
@@ -3219,12 +3371,12 @@
       <c r="D20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
@@ -3237,12 +3389,12 @@
       <c r="D21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
@@ -3255,143 +3407,143 @@
       <c r="D22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
+      <c r="D23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13" t="s">
+      <c r="D24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13" t="s">
+      <c r="D25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
+      <c r="D26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13" t="s">
+      <c r="D27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
+      <c r="D28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
+      <c r="D29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3403,15 +3555,15 @@
       <c r="D30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="6" t="s">
         <v>61</v>
       </c>
@@ -3421,17 +3573,17 @@
       <c r="D31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="6" t="s">
         <v>63</v>
       </c>
@@ -3441,15 +3593,15 @@
       <c r="D32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="6" t="s">
         <v>65</v>
       </c>
@@ -3459,15 +3611,15 @@
       <c r="D33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="9"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
@@ -3477,15 +3629,15 @@
       <c r="D34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="9"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="6" t="s">
         <v>69</v>
       </c>
@@ -3495,15 +3647,15 @@
       <c r="D35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="9"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="6" t="s">
         <v>71</v>
       </c>
@@ -3513,15 +3665,15 @@
       <c r="D36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="9"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="6" t="s">
         <v>73</v>
       </c>
@@ -3531,15 +3683,15 @@
       <c r="D37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="9"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="6" t="s">
         <v>75</v>
       </c>
@@ -3550,14 +3702,14 @@
       <c r="E38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="9"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="6" t="s">
         <v>75</v>
       </c>
@@ -3568,14 +3720,14 @@
       <c r="E39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="9"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="6" t="s">
         <v>75</v>
       </c>
@@ -3586,14 +3738,14 @@
       <c r="E40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="9"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="6" t="s">
         <v>75</v>
       </c>
@@ -3609,36 +3761,36 @@
       <c r="F41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="22"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="25" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3664,745 +3816,905 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="13.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="14.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="32.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="24" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="24" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="24" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="24" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="24" width="181.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="13" style="24" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="13.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="14.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="27" width="32.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="27" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="27" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="27" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="27" width="181.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="13" style="27" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="3" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="32" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="31" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="71.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="32" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="31" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="42" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39" t="s">
+      <c r="K5" s="46"/>
+      <c r="L5" s="47" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
-    </row>
-    <row r="7" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
+    </row>
+    <row r="7" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="32" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="31" t="s">
+      <c r="K7" s="36"/>
+      <c r="L7" s="37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29" t="s">
+    <row r="8" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31"/>
+      <c r="B8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="32" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="31" t="s">
+      <c r="K8" s="52"/>
+      <c r="L8" s="53" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+    <row r="9" customFormat="false" ht="88.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="K9" s="55"/>
+      <c r="L9" s="57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
+    <row r="10" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43" t="s">
+      <c r="K10" s="58"/>
+      <c r="L10" s="61" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42"/>
-      <c r="B11" s="24" t="s">
+    <row r="11" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31"/>
+      <c r="B11" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="K11" s="48"/>
+      <c r="L11" s="53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
+    <row r="12" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="K12" s="33"/>
+      <c r="L12" s="37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42"/>
-      <c r="B13" s="24" t="s">
+    <row r="13" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31"/>
+      <c r="B13" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="53" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="s">
+    <row r="14" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="K14" s="33"/>
+      <c r="L14" s="37" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42"/>
-      <c r="B15" s="24" t="s">
+    <row r="15" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31"/>
+      <c r="B15" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="K15" s="48"/>
+      <c r="L15" s="53" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
+    <row r="16" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="L16" s="41" t="s">
+      <c r="K16" s="55"/>
+      <c r="L16" s="57" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
+    <row r="17" customFormat="false" ht="84.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="L17" s="43" t="s">
+      <c r="K17" s="55"/>
+      <c r="L17" s="65" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="K18" s="33"/>
+      <c r="L18" s="37" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="81.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="41" t="s">
+      <c r="K19" s="48"/>
+      <c r="L19" s="53" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="133.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="J20" s="43" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="L20" s="43" t="s">
+      <c r="K20" s="55"/>
+      <c r="L20" s="65" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="48" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="L21" s="41" t="s">
+      <c r="K21" s="33"/>
+      <c r="L21" s="37" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="40" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="42" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="48" t="s">
+      <c r="C23" s="73"/>
+      <c r="D23" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="K23" s="74"/>
+      <c r="L23" s="42" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="40" t="s">
+    <row r="24" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="66"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="K24" s="48"/>
+      <c r="L24" s="53" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-    </row>
-    <row r="29" customFormat="false" ht="62.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="51" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="54" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31" s="78"/>
+    </row>
+    <row r="32" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="79" t="s">
         <v>175</v>
       </c>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="L32" s="80"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L33" s="40"/>
+      <c r="A33" s="81"/>
     </row>
     <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="L34" s="41"/>
-    </row>
-    <row r="36" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="55" t="s">
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="L34" s="80"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="81"/>
+    </row>
+    <row r="36" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="L36" s="41"/>
-    </row>
-    <row r="38" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="55" t="s">
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="81"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="81"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="54" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="81"/>
+    </row>
+    <row r="41" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="79" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="55" t="s">
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="81"/>
+    </row>
+    <row r="43" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-    </row>
-    <row r="45" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="55" t="s">
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="54" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="48.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="83" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="56" t="s">
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="81"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="81"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="82" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="54" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="81"/>
+    </row>
+    <row r="53" customFormat="false" ht="48.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="83" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="56" t="s">
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="81"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="81"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="82" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="54" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="81"/>
+    </row>
+    <row r="58" customFormat="false" ht="48.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="83" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="56" t="s">
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="83"/>
+    </row>
+    <row r="60" customFormat="false" ht="48.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="83" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="56" t="s">
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="81"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="81"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="82" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="81"/>
+    </row>
+    <row r="65" customFormat="false" ht="48.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="83" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="56" t="s">
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="81"/>
+    </row>
+    <row r="67" customFormat="false" ht="48.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="83" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="56" t="s">
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="81"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="81"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="84" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="81"/>
+    </row>
+    <row r="72" customFormat="false" ht="359.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="83" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="278.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="56" t="s">
+      <c r="B72" s="83"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="81"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="81"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="82" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="81"/>
+    </row>
+    <row r="77" customFormat="false" ht="345" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="83" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="406.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="56" t="s">
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="81"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="81"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="82" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="81"/>
+    </row>
+    <row r="82" customFormat="false" ht="345" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="83" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="350.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="56" t="s">
-        <v>197</v>
-      </c>
-    </row>
+      <c r="B82" s="83"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D5:D6"/>
@@ -4412,6 +4724,7 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A11"/>
@@ -4425,11 +4738,20 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A41:E41"/>
     <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A82:E82"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4448,7 +4770,7 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -4460,553 +4782,553 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="C1" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="58" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="59" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="87" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="B3" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="60" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
+      <c r="C6" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B7" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
+      <c r="C7" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B8" s="87" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="60" t="s">
+      <c r="C8" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
+      <c r="C9" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B10" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
+      <c r="C10" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B11" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C10" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
+      <c r="C11" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B12" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="s">
+      <c r="C12" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B13" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="60" t="s">
+      <c r="C13" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="60" t="s">
+      <c r="C18" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="61" t="s">
+      <c r="C21" s="88" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B22" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="61" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="61" t="s">
+      <c r="C22" s="88" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="61" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="60" t="s">
+      <c r="C23" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="60" t="s">
+      <c r="C25" s="87" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="60" t="s">
+      <c r="C27" s="87" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="C27" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="60" t="s">
+      <c r="C28" s="87" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="60" t="s">
+      <c r="C29" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B30" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="60" t="s">
+      <c r="C30" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="60" t="s">
+      <c r="B32" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="C32" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="60" t="s">
+      <c r="B33" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="C33" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="60" t="s">
+      <c r="C34" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="60" t="s">
+      <c r="C35" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="60" t="s">
+      <c r="C36" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="C36" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="60" t="s">
+      <c r="C37" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B38" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="C37" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="60" t="s">
+      <c r="C38" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B39" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="C38" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="60" t="s">
+      <c r="C39" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B40" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="C39" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="60" t="s">
+      <c r="C40" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B41" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="60" t="s">
+      <c r="C41" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="60" t="s">
+      <c r="C42" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="C42" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="60" t="s">
+      <c r="C43" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="60" t="s">
+      <c r="B44" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="C44" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="60" t="s">
+      <c r="C45" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="C45" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="60" t="s">
+      <c r="C46" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="C46" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="60" t="s">
+      <c r="C47" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="87" t="s">
         <v>240</v>
       </c>
-      <c r="C47" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="60" t="s">
+      <c r="C48" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="C48" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="60" t="s">
+      <c r="C49" s="87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="C49" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>204</v>
+      <c r="C50" s="87" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5171,7 +5493,7 @@
   </sheetPr>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -5183,170 +5505,170 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="89"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="62"/>
+      <c r="B12" s="89"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="89"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="89"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="89"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="89"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="89"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="62"/>
+      <c r="B18" s="89"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="89"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="90"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="89"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="89"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="89"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="89"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="89"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
+      <c r="A36" s="89"/>
+      <c r="B36" s="89"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="89"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="89"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="89"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="89"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/integrative_detection_suppTable1.xlsx
+++ b/integrative_detection_suppTable1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariezufferey/media/electron/mnt/etemp/marie/Dixon2018_integrative_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2A78B2A4-7472-B043-B71C-850C465FB6E9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D2A7DAF1-600B-1F45-9F27-7C94A0B81FE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-1180" windowWidth="51200" windowHeight="28340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-1180" windowWidth="51200" windowHeight="28340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet4" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="274">
   <si>
     <t>List of cell/tissue types with performed experiments and analysis</t>
   </si>
@@ -2200,6 +2200,12 @@
   </si>
   <si>
     <t>0.22925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSE81879 </t>
+  </si>
+  <si>
+    <t>GSE105381</t>
   </si>
 </sst>
 </file>
@@ -2955,6 +2961,9 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -2967,56 +2976,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3417,19 +3423,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" ht="79">
       <c r="A2" s="1"/>
@@ -3462,7 +3468,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3494,7 +3500,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="86"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3522,7 +3528,7 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="86"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -3552,7 +3558,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="86"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -3580,7 +3586,7 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="86"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
@@ -3608,7 +3614,7 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="86"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
@@ -3636,7 +3642,7 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="86"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -3664,7 +3670,7 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="86"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
@@ -3690,7 +3696,7 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="86"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
@@ -3712,7 +3718,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="86"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
@@ -3732,7 +3738,7 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="86"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
@@ -3752,7 +3758,7 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="86"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
@@ -3770,7 +3776,7 @@
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="86"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -3788,7 +3794,7 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="86"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
@@ -3806,7 +3812,7 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="86"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
@@ -3830,7 +3836,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="86"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
@@ -3850,7 +3856,7 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="86"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
@@ -3872,7 +3878,7 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="86"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
@@ -3890,7 +3896,7 @@
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="86"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="4" t="s">
         <v>44</v>
       </c>
@@ -3908,7 +3914,7 @@
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="86"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="4" t="s">
         <v>46</v>
       </c>
@@ -3926,7 +3932,7 @@
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="88" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -3946,7 +3952,7 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="87"/>
+      <c r="A24" s="88"/>
       <c r="B24" s="11" t="s">
         <v>49</v>
       </c>
@@ -3964,7 +3970,7 @@
       <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="87"/>
+      <c r="A25" s="88"/>
       <c r="B25" s="11" t="s">
         <v>49</v>
       </c>
@@ -3982,7 +3988,7 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="87"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="11" t="s">
         <v>49</v>
       </c>
@@ -4000,7 +4006,7 @@
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="87"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="11" t="s">
         <v>49</v>
       </c>
@@ -4018,7 +4024,7 @@
       <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="87"/>
+      <c r="A28" s="88"/>
       <c r="B28" s="11" t="s">
         <v>49</v>
       </c>
@@ -4036,7 +4042,7 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="87"/>
+      <c r="A29" s="88"/>
       <c r="B29" s="11" t="s">
         <v>56</v>
       </c>
@@ -4054,7 +4060,7 @@
       <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="89" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4074,7 +4080,7 @@
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="88"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
@@ -4094,7 +4100,7 @@
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="88"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
@@ -4112,7 +4118,7 @@
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="88"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="4" t="s">
         <v>65</v>
       </c>
@@ -4130,7 +4136,7 @@
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="88"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
@@ -4148,7 +4154,7 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="88"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="4" t="s">
         <v>69</v>
       </c>
@@ -4166,7 +4172,7 @@
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="88"/>
+      <c r="A36" s="89"/>
       <c r="B36" s="4" t="s">
         <v>71</v>
       </c>
@@ -4184,7 +4190,7 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="88"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="4" t="s">
         <v>73</v>
       </c>
@@ -4202,7 +4208,7 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="88"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="4" t="s">
         <v>75</v>
       </c>
@@ -4220,7 +4226,7 @@
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="88"/>
+      <c r="A39" s="89"/>
       <c r="B39" s="4" t="s">
         <v>75</v>
       </c>
@@ -4238,7 +4244,7 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="88"/>
+      <c r="A40" s="89"/>
       <c r="B40" s="4" t="s">
         <v>75</v>
       </c>
@@ -4256,7 +4262,7 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="88"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="4" t="s">
         <v>75</v>
       </c>
@@ -4278,7 +4284,7 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="88"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="16" t="s">
         <v>80</v>
       </c>
@@ -4321,8 +4327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMI82"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4352,7 +4358,7 @@
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="150">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="91" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -4384,8 +4390,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="71.5" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="104" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="96" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -4414,59 +4420,59 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="25.25" customHeight="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="104" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="96" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="100" t="s">
+      <c r="G5" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102" t="s">
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="98" t="s">
+      <c r="K5" s="95"/>
+      <c r="L5" s="90" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="39.75" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="104" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="96" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102" t="s">
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="103"/>
-      <c r="L6" s="98"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:12" ht="150">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="91" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -4498,7 +4504,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="150">
-      <c r="A8" s="99"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="39" t="s">
         <v>20</v>
       </c>
@@ -4556,7 +4562,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="60">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="91" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="48" t="s">
@@ -4592,7 +4598,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="60">
-      <c r="A11" s="99"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="52" t="s">
         <v>24</v>
       </c>
@@ -4620,7 +4626,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="60">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="91" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="53" t="s">
@@ -4650,7 +4656,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="60">
-      <c r="A13" s="99"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="52" t="s">
         <v>30</v>
       </c>
@@ -4678,7 +4684,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="60">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="91" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="53" t="s">
@@ -4706,7 +4712,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="60">
-      <c r="A15" s="99"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="52" t="s">
         <v>38</v>
       </c>
@@ -4769,7 +4775,9 @@
       <c r="C17" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="45" t="s">
+        <v>272</v>
+      </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
@@ -4784,16 +4792,16 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="60" customHeight="1">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="98" t="s">
         <v>149</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="99" t="s">
         <v>151</v>
       </c>
       <c r="E18" s="57" t="s">
@@ -4814,14 +4822,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="81.25" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="92" t="s">
+      <c r="A19" s="97"/>
+      <c r="B19" s="98" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="99" t="s">
         <v>151</v>
       </c>
       <c r="E19" s="58" t="s">
@@ -4849,7 +4857,9 @@
         <v>157</v>
       </c>
       <c r="C20" s="46"/>
-      <c r="D20" s="45"/>
+      <c r="D20" s="45" t="s">
+        <v>273</v>
+      </c>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
@@ -4864,14 +4874,14 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="50.25" customHeight="1">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="100" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="30"/>
-      <c r="D21" s="95" t="s">
+      <c r="D21" s="101" t="s">
         <v>161</v>
       </c>
       <c r="E21" s="29" t="s">
@@ -4892,10 +4902,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="71.5" customHeight="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="59"/>
-      <c r="D22" s="95"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="34" t="s">
         <v>164</v>
       </c>
@@ -4912,12 +4922,12 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="48.5" customHeight="1">
-      <c r="A23" s="91"/>
-      <c r="B23" s="96" t="s">
+      <c r="A23" s="97"/>
+      <c r="B23" s="102" t="s">
         <v>166</v>
       </c>
       <c r="C23" s="59"/>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="103" t="s">
         <v>167</v>
       </c>
       <c r="E23" s="34" t="s">
@@ -4938,10 +4948,10 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="75">
-      <c r="A24" s="91"/>
-      <c r="B24" s="96"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="40"/>
-      <c r="D24" s="97"/>
+      <c r="D24" s="103"/>
       <c r="E24" s="38" t="s">
         <v>170</v>
       </c>
@@ -4968,39 +4978,39 @@
       <c r="L31" s="62"/>
     </row>
     <row r="32" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
       <c r="L32" s="63"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="64"/>
     </row>
     <row r="34" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
       <c r="L34" s="63"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="64"/>
     </row>
     <row r="36" spans="1:12" ht="69" customHeight="1">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="64"/>
@@ -5017,25 +5027,25 @@
       <c r="A40" s="64"/>
     </row>
     <row r="41" spans="1:12" ht="57.75" customHeight="1">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="64"/>
     </row>
     <row r="43" spans="1:12" ht="46.5" customHeight="1">
-      <c r="A43" s="90" t="s">
+      <c r="A43" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="61" t="s">
@@ -5043,13 +5053,13 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="49" customHeight="1">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="64"/>
@@ -5066,13 +5076,13 @@
       <c r="A52" s="64"/>
     </row>
     <row r="53" spans="1:5" ht="49" customHeight="1">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="64"/>
@@ -5089,25 +5099,25 @@
       <c r="A57" s="64"/>
     </row>
     <row r="58" spans="1:5" ht="49" customHeight="1">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="66"/>
     </row>
     <row r="60" spans="1:5" ht="49" customHeight="1">
-      <c r="A60" s="89" t="s">
+      <c r="A60" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="89"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="64"/>
@@ -5124,25 +5134,25 @@
       <c r="A64" s="64"/>
     </row>
     <row r="65" spans="1:5" ht="49" customHeight="1">
-      <c r="A65" s="89" t="s">
+      <c r="A65" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="B65" s="89"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="64"/>
     </row>
     <row r="67" spans="1:5" ht="49" customHeight="1">
-      <c r="A67" s="89" t="s">
+      <c r="A67" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="64"/>
@@ -5159,13 +5169,13 @@
       <c r="A71" s="64"/>
     </row>
     <row r="72" spans="1:5" ht="359.25" customHeight="1">
-      <c r="A72" s="89" t="s">
+      <c r="A72" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="B72" s="89"/>
-      <c r="C72" s="89"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="105"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="64"/>
@@ -5182,13 +5192,13 @@
       <c r="A76" s="64"/>
     </row>
     <row r="77" spans="1:5" ht="345" customHeight="1">
-      <c r="A77" s="89" t="s">
+      <c r="A77" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="105"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="64"/>
@@ -5205,16 +5215,38 @@
       <c r="A81" s="64"/>
     </row>
     <row r="82" spans="1:5" ht="345" customHeight="1">
-      <c r="A82" s="89" t="s">
+      <c r="A82" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="B82" s="89"/>
-      <c r="C82" s="89"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="89"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A11"/>
@@ -5230,28 +5262,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A65:E65"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5266,7 +5276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4792FF9-1956-6646-83A8-D36203064484}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
@@ -5292,7 +5302,7 @@
       <c r="D1" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="85" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5309,7 +5319,7 @@
       <c r="D2" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="85" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5326,7 +5336,7 @@
       <c r="D3" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="85" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5343,7 +5353,7 @@
       <c r="D4" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="85" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5360,7 +5370,7 @@
       <c r="D5" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="85" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5377,7 +5387,7 @@
       <c r="D6" s="79" t="s">
         <v>251</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="85" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5394,7 +5404,7 @@
       <c r="D7" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="85" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5411,7 +5421,7 @@
       <c r="D8" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="85" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5428,7 +5438,7 @@
       <c r="D9" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="85" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5445,7 +5455,7 @@
       <c r="D10" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="85" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5462,7 +5472,7 @@
       <c r="D11" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="85" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5479,7 +5489,7 @@
       <c r="D12" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="85" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5496,7 +5506,7 @@
       <c r="D13" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="85" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5513,7 +5523,7 @@
       <c r="D14" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="85" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5530,7 +5540,7 @@
       <c r="D15" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="85" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5547,7 +5557,7 @@
       <c r="D16" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="E16" s="105" t="s">
+      <c r="E16" s="85" t="s">
         <v>270</v>
       </c>
     </row>
